--- a/outputs/bst/insertion_summarised.xlsx
+++ b/outputs/bst/insertion_summarised.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.7e-06</v>
+        <v>1.8e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>769</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4e-05</v>
+        <v>5.9e-05</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1538</v>
       </c>
       <c r="B4" t="n">
-        <v>9.1e-05</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2307</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00014</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>3076</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00019</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>3845</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00023</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>4614</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00028</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>5383</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00033</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>6152</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00038</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>6921</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00042</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>7690</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00047</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>8459</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00052</v>
+        <v>0.00054</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>9228</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00061</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>9997</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00062</v>
+        <v>0.00065</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>9999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00062</v>
+        <v>0.0006400000000000001</v>
       </c>
     </row>
   </sheetData>
